--- a/Miscelanea/BOM.xlsx
+++ b/Miscelanea/BOM.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DANIEL\Documents\Personal\Convocatorias\Escollera\tesis\Financieros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C6CBD6-61B3-4476-9DB0-F7FC37E538F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E574A1D-C21D-46FF-A91E-D0775284A1DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,8 +24,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,39 +37,279 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="89">
   <si>
     <t>componente</t>
   </si>
   <si>
-    <t>Cantidad</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
-    <t>Módulo conversor TTL a RS485</t>
-  </si>
-  <si>
     <t>LM7805</t>
   </si>
   <si>
-    <t>LM7812</t>
-  </si>
-  <si>
-    <t>Condensador cerámico 334 (330nf o 0.33uf )</t>
-  </si>
-  <si>
     <t>Condensador cerámico 104 (100nf o 0.1uf )</t>
   </si>
   <si>
-    <t>Concector MOLEX CH3.96 01x04</t>
-  </si>
-  <si>
-    <t>Concector MOLEX CH3.96 01x02</t>
-  </si>
-  <si>
-    <t>Precio estimado (pesos colombianos)</t>
+    <t>LM7809</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>LM7805_TO220</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>Conn_01x02</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>0.1uF</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>MAX485E</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>ttgo_tbeam</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>0.22uF</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>10uF</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>J2</t>
+  </si>
+  <si>
+    <t>J3</t>
+  </si>
+  <si>
+    <t>J4</t>
+  </si>
+  <si>
+    <t>J5</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>L7809</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>1N4004</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>J8</t>
+  </si>
+  <si>
+    <t>J9</t>
+  </si>
+  <si>
+    <t>J6</t>
+  </si>
+  <si>
+    <t>J7</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>330</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>10K</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>2K</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>1K</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>imagen</t>
+  </si>
+  <si>
+    <t>Cantida de 
+boyas</t>
+  </si>
+  <si>
+    <t>Precio estimado por unidad (pesos colombianos)</t>
+  </si>
+  <si>
+    <t>Cantidad por boya</t>
+  </si>
+  <si>
+    <t>Condensador electrolítico 0.22 uF</t>
+  </si>
+  <si>
+    <t>MAX485</t>
+  </si>
+  <si>
+    <t>Condensador electrolítico 10 uF</t>
+  </si>
+  <si>
+    <t>Bornera de dos pines</t>
+  </si>
+  <si>
+    <t>Diodo 1N4004</t>
+  </si>
+  <si>
+    <t>Resistencia 1 kilo ohmio 
+1/4 de watt</t>
+  </si>
+  <si>
+    <t>Resistencia 10 kilo ohmios
+1/4 de watt</t>
+  </si>
+  <si>
+    <t>Resistencia 2 kilo ohmios
+1/4 de watt</t>
+  </si>
+  <si>
+    <t>Resistencia 330 ohmios
+1/4 de watt</t>
+  </si>
+  <si>
+    <t>módulo relé de dos canáles</t>
+  </si>
+  <si>
+    <t>Total cantidad de elementos</t>
+  </si>
+  <si>
+    <t>Total precio por 3 boyas</t>
+  </si>
+  <si>
+    <t>LED de chorro amarillo</t>
+  </si>
+  <si>
+    <t>LED de chorro rojo</t>
+  </si>
+  <si>
+    <t>LED de chorro azul</t>
+  </si>
+  <si>
+    <t>jumpers amarillos</t>
+  </si>
+  <si>
+    <t>jumpers azules</t>
+  </si>
+  <si>
+    <t>jumpers verdes</t>
+  </si>
+  <si>
+    <t>jumpers naranja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regleta de Pines Header Macho - Hembra 1x40 2.54mm </t>
+  </si>
+  <si>
+    <t>Termoencogible 
+5 mm diámetro por metro</t>
+  </si>
+  <si>
+    <t>Malla desoldadora</t>
+  </si>
+  <si>
+    <t>Carreta de Soldadura de Estaño Solder 30 gr</t>
+  </si>
+  <si>
+    <t>Cautín 40W HQ</t>
+  </si>
+  <si>
+    <t>Tercera Mano con Soporte para Cautín, Pinzas y Lupa</t>
+  </si>
+  <si>
+    <t>Pomada para Soldar "La Única" 8 gr</t>
+  </si>
+  <si>
+    <t>Extractor Removedor de Soldadura Estaño - Plomo ZD190</t>
+  </si>
+  <si>
+    <t>Batería seca 12V 5Ah</t>
+  </si>
+  <si>
+    <t>Multimetro Digital Uni-t Referencia Ut33c+</t>
+  </si>
+  <si>
+    <t>Pinza de Punta Larga 4 Pulgadas - Marca Ranger</t>
+  </si>
+  <si>
+    <t>Pinza de Punta Curva 4 Pulgadas - Marca Ranger</t>
+  </si>
+  <si>
+    <t>Cortafrio 4 Pulgadas - Marca Ranger</t>
+  </si>
+  <si>
+    <t>Pelacable Ajustable 5" Calibres 10 AWG ~ 30 AWG</t>
   </si>
 </sst>
 </file>
@@ -88,15 +333,39 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -119,11 +388,79 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -135,6 +472,28 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -152,6 +511,2157 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>838199</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>175643</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1683378</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1123950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68624CE6-A9BC-C207-2169-830A03F4EBFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2524124" y="7281293"/>
+          <a:ext cx="845179" cy="948307"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>857250</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1589028</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1190624</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagen 6" descr="C104 Condensador Cerámico 0.1uf/50v | MercadoLibre">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA10C9EF-9DB2-F0D3-CD15-B8118F57B00D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2543175" y="7448550"/>
+          <a:ext cx="731778" cy="990599"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>771525</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2030903</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1438275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Imagen 7" descr="Regulador voltaje LM7805 | Osaka Electronics">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{057CD05F-A454-7FEF-5E76-C7BB101EBC18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="11348" t="12766" r="17021" b="9220"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2457450" y="1724025"/>
+          <a:ext cx="1259378" cy="1371600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1847850</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1389323</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Imagen 8" descr="Regulador voltaje LM7809 | Osaka Electronics">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8ED59AC2-D9B4-08E4-98C2-4CF4CB4F1D31}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="7000" t="5000" r="10500" b="5500"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2314575" y="3209925"/>
+          <a:ext cx="1219200" cy="1322648"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>763359</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>113594</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1084490" cy="1124656"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Imagen 10" descr="Capacitor electrolítico Th 0.22uF 50V - aelectronics">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95D58C26-45D1-4407-BAF6-D75CB5D9082F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="7879" t="7273" r="10303" b="7879"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2449284" y="4714169"/>
+          <a:ext cx="1084490" cy="1124656"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>552451</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2095500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1581150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Imagen 12" descr="Módulo RS-485 TTL a RS485 MAX485CSA Convertidor para Arduino - Drones,  Repuestos y Accesorios - Tienda Online de Radio Control en Colombia">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B1C4431-0E55-A8DF-828A-B5BB867D39E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2238376" y="609601"/>
+          <a:ext cx="1543049" cy="1543049"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1033" name="AutoShape 9" descr="1n4004 diodo rectificador 400v 1a">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4C97A6A-F084-881A-8766-51BDDC46235F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1685925" y="11468100"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1034" name="AutoShape 10" descr="1n4004 diodo rectificador 400v 1a">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D437FEE-918D-DB54-55DE-2298A1DF729F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1685925" y="12039600"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1227388" cy="1238249"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Imagen 14" descr="100% nuevo 3000 unids/lote = cada caja 1000 Uds diodo rectificador (1N4001  1N4004 1N4007) _ - AliExpress Mobile">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AF929DF-F4B2-49E1-B798-2D963D2C2498}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="9090" t="7577" r="5303" b="6060"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2381250" y="11601450"/>
+          <a:ext cx="1227388" cy="1238249"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>676274</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1895473</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1323973</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Imagen 15" descr="Resistencia 330 ohm 0,25w ±5% 300v">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{018618F5-E2C7-57EF-5E2D-192C901BA284}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2362199" y="13154024"/>
+          <a:ext cx="1219199" cy="1219199"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1895475</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1243998</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Imagen 16" descr="RAX1/4W 1K ohm 5% - Sigma Electrónica">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF8AA94B-090F-9E38-7897-A1DB4841D779}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="7692" t="8462" r="6923" b="9230"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2419350" y="14535150"/>
+          <a:ext cx="1162050" cy="1120173"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1838324</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1314449</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Imagen 17" descr="Resistencia 10K ohm 0,25w ±5% 300v">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAB6DC9F-1E83-0363-81BE-620EF8BD3E11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2295525" y="15859125"/>
+          <a:ext cx="1228724" cy="1228724"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>676274</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1266825" cy="1266825"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Imagen 19" descr="Resistencia 2K ohm 0,25w ±5% 300v">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8B762E1-DCDB-46EC-9216-4CD71D2B296E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2362199" y="18535649"/>
+          <a:ext cx="1266825" cy="1266825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>685799</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>34078</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2085975</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1290793</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Imagen 22" descr="Condensador Electrolítico 10uF 50V">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9848F9BD-8F96-95E4-580F-8D2BED3F4D1C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="3731" t="8209" r="5224" b="10075"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2371724" y="6482503"/>
+          <a:ext cx="1400176" cy="1256715"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>490343</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1767081" cy="1562100"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4" descr="Modulo Rele De 2 Canales Para Arduino | MercadoLibre">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C459F6DE-08FF-4929-8DAC-C8A3DF77DA37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2177629" y="22693993"/>
+          <a:ext cx="1767081" cy="1562100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>530678</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>108858</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2013856</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1591622</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Imagen 9" descr="Diodo Led chorro ultrabrillante 5mm rojo amarillo azul verde blanco, ferretronica">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F1CAA81-9C13-514D-573A-35B36F36CFCC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2217964" y="11783787"/>
+          <a:ext cx="1483178" cy="1482764"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>530678</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>217715</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1989490</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1673679</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Imagen 11" descr="Diodo Led chorro ultrabrillante 5mm color azul , ferretronica">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4138D480-6154-2F17-3A5D-C27213FAEF28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2217964" y="15512144"/>
+          <a:ext cx="1458812" cy="1455964"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>421821</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>231322</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1935169</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1741715</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Imagen 13" descr="Diodo Led chorro ultrabrillante 5mm amarillo verde azul rojo blanco, ferretronica">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7099C16-672A-6B1E-8B83-BCC590B2490E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2109107" y="13661572"/>
+          <a:ext cx="1513348" cy="1510393"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>464969</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>231320</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1712173" cy="1703612"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Imagen 18" descr="Regleta de Pines Header Macho - Hembra 1x40 2.54mm conector Macho Hembra para Soldar, Ferretronica">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE5D3FBF-204D-439B-932C-67B088302913}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2152255" y="33146999"/>
+          <a:ext cx="1712173" cy="1703612"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>68036</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2231571</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>2103984</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Imagen 23" descr="Tubo Termoencogible 5mm Color Negro x Metro, Ferretrónica">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B3BF1FB-C5E3-EB41-584C-14CB1B5156AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1877786" y="33351107"/>
+          <a:ext cx="2041071" cy="2035948"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>234043</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>43542</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2275114</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>2079490</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Imagen 24" descr="Tubo Termoencogible 5mm Color Negro x Metro, Ferretrónica">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECD09363-A22F-4391-88DC-86953C7C764D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1921329" y="35435721"/>
+          <a:ext cx="2041071" cy="2035948"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>326571</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2285999</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>2063366</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Imagen 25" descr="Malla desoldadora 2mm x 1.5m Mecha Absorbente 100% Cobre ZD-180 , Ferretrónica">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{568C7DEA-3D9F-4A2F-0195-127B46572937}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2013857" y="37610143"/>
+          <a:ext cx="1959428" cy="1954509"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>244928</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>258536</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1959428</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>1968732</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Imagen 26" descr="carreta de soldadura de estaño solder de 30 gr, ferretrónica">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D263183A-9988-A54C-046B-8F1F1F2418E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1932214" y="39868929"/>
+          <a:ext cx="1714500" cy="1710196"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>489857</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>421822</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2072258</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>2000251</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Imagen 27" descr="cautin tipo lapiz  40w mango azul HQ, ferretrónica">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E9E8AAA-D22C-CD31-260D-9FF5263487BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2177143" y="42141322"/>
+          <a:ext cx="1582401" cy="1578429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>517071</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>204107</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2245178</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>1927876</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Imagen 28" descr="Tercer Brazo - Tercera Mano con soporte para cautin Ajustable con Pinzas y Lupa 5x, ferretronica">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8013D965-6640-65CD-FC4A-86165968FABA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2204357" y="44032714"/>
+          <a:ext cx="1728107" cy="1723769"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>136072</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2204357</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>2049863</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Imagen 29" descr="pomada unica pequeña, resina para soldar, ferretronica">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{292B9228-9C33-1A63-C0F4-56E82C40C2BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1973036" y="46073786"/>
+          <a:ext cx="1918607" cy="1913791"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>258536</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>231322</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2109107</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>2077248</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Imagen 30" descr="Extractor Removedor de Soldadura Estaño - Plomo ZD190, Ferretronica">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F480D817-14DF-126A-39BF-D78348E30060}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1945822" y="48278143"/>
+          <a:ext cx="1850571" cy="1845926"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1037" name="AutoShape 13" descr="Imagen 1 de 1 de Batería 12v 4ah Fulibattery O Magna">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF3FF36E-87A2-64BE-AC50-951C0EE63E61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5753100" y="50234850"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1038" name="AutoShape 14" descr="Imagen 1 de 1 de Batería 12v 4ah Fulibattery O Magna">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6DAC290-07E1-C024-A859-2B3C8692F1FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1685925" y="50234850"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>557893</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2282841</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>2054677</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Imagen 32" descr="Imagen que contiene pila, electrónica, firmar&#10;&#10;Descripción generada automáticamente">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2892B5F-4972-283E-C65F-FF6A2893E18B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2245179" y="50319215"/>
+          <a:ext cx="1724948" cy="1891391"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>517070</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2027463</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>2041632</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Imagen 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C6158C3-03AE-C85B-6128-AECD7FAA9C18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2204356" y="52360285"/>
+          <a:ext cx="1510393" cy="1946383"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>312964</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2181833</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>1959429</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Imagen 34" descr="Pinza de Punta Larga 4 Pulgadas - # 4 Ranger Tipo Profesional, Ferretrónica">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7B4596F-D62C-2E5D-7731-B5AAB9A17BB4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2000250" y="54469394"/>
+          <a:ext cx="1868869" cy="1864178"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>367393</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>312964</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2058925</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>2000250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Imagen 35" descr="Pinza de Punta Curva 4 Pulgadas - #4 para la Joyeria, Bisuteria y Electronica , Ferretrónica">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E90DB25-66AE-8AEA-8FEF-6A2705E8BA6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2054679" y="56796214"/>
+          <a:ext cx="1691532" cy="1687286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>122464</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2141219</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>2068286</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Imagen 36" descr="Cortafrio 4 Pulgadas - # 4 Ranger Tipo Profesional, Ferretrónica">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D1603DB-F044-3833-A40A-3535CBEC39DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1877786" y="58714821"/>
+          <a:ext cx="1950719" cy="1945822"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>217715</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>136072</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2125375</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>2041072</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Imagen 37" descr="Pelacable Ajustable 5 pulgadas Calibres 10 AWG ~ 30 AWG, ferretronica">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B277EA52-5289-60A9-04AD-A3CC97E33E89}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1905001" y="60837536"/>
+          <a:ext cx="1907660" cy="1905000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>81643</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2439879</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1728108</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Imagen 38" descr="Jumper macho-macho amarillo – Pack de 10 cables de 10 cm intestati Ai Capi  con conector macho a 1 polo : Amazon.es: Informática">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74F5489C-8E84-5F42-7A3E-2DF3C6F5668D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1768929" y="24370393"/>
+          <a:ext cx="2358236" cy="1564822"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>81643</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>68037</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2433665</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1660073</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Imagen 39" descr="100 piezas 1 p 1 p macho Macho dupont puente cable 26 #2,54mm cable azul 20  cm|Arnés de cables| - AliExpress">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11B7D628-C9A7-5F69-688D-AA3946C0DA6F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1768929" y="26016858"/>
+          <a:ext cx="2352022" cy="1592036"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -417,155 +2927,1198 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D10"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D9"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.28515625" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" customWidth="1"/>
+    <col min="2" max="2" width="38.42578125" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" customWidth="1"/>
+    <col min="4" max="4" width="25.5703125" customWidth="1"/>
+    <col min="5" max="6" width="24.28515625" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="7">
+        <v>3</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="15">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D2" s="4">
+        <v>4500</v>
+      </c>
+      <c r="E2" s="4">
+        <f>C2*$H$1</f>
+        <v>3</v>
+      </c>
+      <c r="F2" s="4">
+        <f>D2*E2</f>
+        <v>13500</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="15">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4">
+        <v>900</v>
+      </c>
+      <c r="E3" s="4">
+        <f t="shared" ref="E3:E36" si="0">C3*$H$1</f>
+        <v>3</v>
+      </c>
+      <c r="F3" s="4">
+        <f t="shared" ref="F3:F36" si="1">D3*E3</f>
+        <v>2700</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="2" t="s">
+    </row>
+    <row r="4" spans="1:10" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="15">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1000</v>
+      </c>
+      <c r="E4" s="4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F4" s="4">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="15">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="D5" s="4">
+        <v>100</v>
+      </c>
+      <c r="E5" s="4">
+        <f t="shared" ref="E5" si="2">C5*$H$1</f>
+        <v>6</v>
+      </c>
+      <c r="F5" s="4">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="16">
+        <v>2</v>
+      </c>
+      <c r="D6" s="4">
+        <v>100</v>
+      </c>
+      <c r="E6" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F6" s="4">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4">
-        <v>2</v>
-      </c>
-      <c r="C2" s="4">
-        <v>4500</v>
-      </c>
-      <c r="D2" s="4">
-        <f>B2*C2</f>
+      <c r="B7" s="4"/>
+      <c r="C7" s="15">
+        <v>4</v>
+      </c>
+      <c r="D7" s="4">
+        <v>100</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="1"/>
+        <v>1200</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="15">
+        <v>9</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1000</v>
+      </c>
+      <c r="E8" s="4">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="F8" s="4">
+        <f t="shared" si="1"/>
+        <v>27000</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="15">
+        <v>3</v>
+      </c>
+      <c r="D9" s="4">
+        <v>100</v>
+      </c>
+      <c r="E9" s="4">
+        <f t="shared" ref="E9:E35" si="3">C9*$H$1</f>
+        <v>9</v>
+      </c>
+      <c r="F9" s="4">
+        <f t="shared" si="1"/>
+        <v>900</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="138" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="15">
+        <v>3</v>
+      </c>
+      <c r="D10" s="4">
+        <v>100</v>
+      </c>
+      <c r="E10" s="4">
+        <f t="shared" ref="E10:E11" si="4">C10*$H$1</f>
+        <v>9</v>
+      </c>
+      <c r="F10" s="4">
+        <f t="shared" ref="F10:F11" si="5">D10*E10</f>
+        <v>900</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="147" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="15">
+        <v>3</v>
+      </c>
+      <c r="D11" s="4">
+        <v>100</v>
+      </c>
+      <c r="E11" s="4">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="F11" s="4">
+        <f t="shared" si="5"/>
+        <v>900</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="15">
+        <v>3</v>
+      </c>
+      <c r="D12" s="4">
+        <v>100</v>
+      </c>
+      <c r="E12" s="4">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="F12" s="4">
+        <f t="shared" si="1"/>
+        <v>900</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="15">
+        <v>3</v>
+      </c>
+      <c r="D13" s="4">
+        <v>100</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="1"/>
+        <v>900</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="15">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4">
+        <v>100</v>
+      </c>
+      <c r="E14" s="4">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="F14" s="4">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="15">
+        <v>1</v>
+      </c>
+      <c r="D15" s="4">
+        <v>100</v>
+      </c>
+      <c r="E15" s="4">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="F15" s="4">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="15">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4">
+        <v>100</v>
+      </c>
+      <c r="E16" s="4">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="F16" s="4">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="137.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="15">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4">
+        <v>12500</v>
+      </c>
+      <c r="E17" s="4">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="F17" s="4">
+        <f t="shared" ref="F17:F35" si="6">D17*E17</f>
+        <v>37500</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="137.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="15">
+        <v>3</v>
+      </c>
+      <c r="D18" s="4">
+        <v>300</v>
+      </c>
+      <c r="E18" s="4">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="F18" s="4">
+        <f t="shared" si="6"/>
+        <v>2700</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="137.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="15">
+        <v>3</v>
+      </c>
+      <c r="D19" s="4">
+        <v>300</v>
+      </c>
+      <c r="E19" s="4">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" si="6"/>
+        <v>2700</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="137.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="15">
+        <v>3</v>
+      </c>
+      <c r="D20" s="4">
+        <v>300</v>
+      </c>
+      <c r="E20" s="4">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="F20" s="4">
+        <f t="shared" si="6"/>
+        <v>2700</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="137.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="15">
+        <v>3</v>
+      </c>
+      <c r="D21" s="4">
+        <v>300</v>
+      </c>
+      <c r="E21" s="4">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="F21" s="4">
+        <f t="shared" si="6"/>
+        <v>2700</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="166.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="15">
+        <v>1</v>
+      </c>
+      <c r="D22" s="4">
+        <v>1000</v>
+      </c>
+      <c r="E22" s="4">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="F22" s="4">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="166.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="15">
+        <v>1</v>
+      </c>
+      <c r="D23" s="4">
+        <v>1200</v>
+      </c>
+      <c r="E23" s="4">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="F23" s="4">
+        <f t="shared" si="6"/>
+        <v>3600</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="166.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="15">
+        <v>1</v>
+      </c>
+      <c r="D24" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E24" s="4">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="F24" s="4">
+        <f t="shared" si="6"/>
         <v>9000</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="4">
+      <c r="I24" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="166.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="15">
         <v>1</v>
       </c>
-      <c r="C3" s="4">
-        <v>900</v>
-      </c>
-      <c r="D3" s="4">
-        <f t="shared" ref="D3:D8" si="0">B3*C3</f>
-        <v>900</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="4">
+      <c r="D25" s="4">
+        <v>6500</v>
+      </c>
+      <c r="E25" s="4">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="F25" s="4">
+        <f t="shared" si="6"/>
+        <v>19500</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="166.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="15">
         <v>1</v>
       </c>
-      <c r="C4" s="4">
-        <v>1000</v>
-      </c>
-      <c r="D4" s="4">
+      <c r="D26" s="4">
+        <v>11000</v>
+      </c>
+      <c r="E26" s="4">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="F26" s="4">
+        <f t="shared" si="6"/>
+        <v>33000</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="166.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="15">
+        <v>1</v>
+      </c>
+      <c r="D27" s="4">
+        <v>35000</v>
+      </c>
+      <c r="E27" s="4">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="F27" s="4">
+        <f t="shared" si="6"/>
+        <v>105000</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="166.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="15">
+        <v>1</v>
+      </c>
+      <c r="D28" s="4">
+        <v>35000</v>
+      </c>
+      <c r="E28" s="4">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="F28" s="4">
+        <f t="shared" si="6"/>
+        <v>105000</v>
+      </c>
+      <c r="I28" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="166.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" s="15">
+        <v>1</v>
+      </c>
+      <c r="D29" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E29" s="4">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="F29" s="4">
+        <f t="shared" si="6"/>
+        <v>9000</v>
+      </c>
+      <c r="I29" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J29" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="166.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="15">
+        <v>1</v>
+      </c>
+      <c r="D30" s="4">
+        <v>8000</v>
+      </c>
+      <c r="E30" s="4">
+        <f t="shared" ref="E30:E34" si="7">C30*$H$1</f>
+        <v>3</v>
+      </c>
+      <c r="F30" s="4">
+        <f t="shared" ref="F30:F34" si="8">D30*E30</f>
+        <v>24000</v>
+      </c>
+      <c r="I30" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J30" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="166.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="15">
+        <v>1</v>
+      </c>
+      <c r="E31" s="4">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="F31" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="166.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="15">
+        <v>1</v>
+      </c>
+      <c r="D32" s="4">
+        <v>63000</v>
+      </c>
+      <c r="E32" s="4">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="F32" s="4">
+        <f t="shared" si="8"/>
+        <v>189000</v>
+      </c>
+      <c r="I32" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J32" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="166.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="15">
+        <v>1</v>
+      </c>
+      <c r="D33" s="4">
+        <v>15000</v>
+      </c>
+      <c r="E33" s="4">
+        <f t="shared" ref="E33" si="9">C33*$H$1</f>
+        <v>3</v>
+      </c>
+      <c r="F33" s="4">
+        <f t="shared" ref="F33" si="10">D33*E33</f>
+        <v>45000</v>
+      </c>
+      <c r="I33" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J33" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="166.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B34" s="8"/>
+      <c r="C34" s="15">
+        <v>1</v>
+      </c>
+      <c r="D34" s="4">
+        <v>12500</v>
+      </c>
+      <c r="E34" s="4">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="F34" s="4">
+        <f t="shared" si="8"/>
+        <v>37500</v>
+      </c>
+      <c r="I34" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J34" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="166.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B35" s="8"/>
+      <c r="C35" s="15">
+        <v>1</v>
+      </c>
+      <c r="D35" s="4">
+        <v>12500</v>
+      </c>
+      <c r="E35" s="4">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="F35" s="4">
+        <f t="shared" si="6"/>
+        <v>37500</v>
+      </c>
+      <c r="I35" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J35" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="166.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B36" s="8"/>
+      <c r="C36" s="15">
+        <v>1</v>
+      </c>
+      <c r="D36" s="4">
+        <v>12500</v>
+      </c>
+      <c r="E36" s="4">
         <f t="shared" si="0"/>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="4">
-        <v>2</v>
-      </c>
-      <c r="C5" s="4">
-        <v>100</v>
-      </c>
-      <c r="D5" s="4">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="4">
-        <v>2</v>
-      </c>
-      <c r="C6" s="4">
-        <v>100</v>
-      </c>
-      <c r="D6" s="4">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="4">
+        <v>3</v>
+      </c>
+      <c r="F36" s="4">
+        <f t="shared" si="1"/>
+        <v>37500</v>
+      </c>
+      <c r="I36" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J36" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="4">
-        <v>2000</v>
-      </c>
-      <c r="D7" s="4">
-        <f t="shared" si="0"/>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4">
+        <f>SUM(E2:E36)</f>
+        <v>198</v>
+      </c>
+      <c r="F37" s="4">
+        <f>SUM(F2:F36)</f>
+        <v>759900</v>
+      </c>
+      <c r="I37" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J37" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="I38" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J38" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I39" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J39" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I40" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J40" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I41" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="J41" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="4">
-        <v>2</v>
-      </c>
-      <c r="C8" s="4">
-        <v>3500</v>
-      </c>
-      <c r="D8" s="4">
-        <f t="shared" si="0"/>
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4">
-        <f>SUM(D2:D8)</f>
-        <v>20300</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I42" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J42" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I43" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="J43" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I44" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J44" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I45" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="J45" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I46" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J46" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I47" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="J47" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I48" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="J48" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I49" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="J49" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I50" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="J50" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I51" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="J51" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I52" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="J52" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I53" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="J53" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="54" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I54" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J54" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="55" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I55" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J55" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="56" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I56" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J56" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="57" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I57" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="J57" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="58" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I58" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J58" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="59" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I59" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="J59" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="60" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I60" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="J60" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I61" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="J61" s="14" t="s">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="35" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C44EF451-DD40-4DF8-AF6E-EC6FCBA54B5B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>